--- a/levelfiles/spreadsheet/oxygen.xlsx
+++ b/levelfiles/spreadsheet/oxygen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/villaa/nrCascadeSim/levelfiles/spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/villaa/Computing/nrCascadeSim/levelfiles/spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F62AB-AD36-1843-B9C5-57C6D619CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027B0FA4-225A-AC4A-9EE9-A12E9DEABAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{2D1C8EBD-58BF-0748-ACC6-F1ED1991D975}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>iso</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Sn (MeV)</t>
+  </si>
+  <si>
+    <t>Cap. Percent (%)</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269F673A-9A68-9948-B26F-F24DE369A567}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,9 +420,10 @@
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +442,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>16</v>
       </c>
@@ -460,8 +467,12 @@
       <c r="F2">
         <v>4.1430800999999997</v>
       </c>
+      <c r="G2">
+        <f>(D2/$D$5)*100</f>
+        <v>99.714056794592764</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
@@ -482,8 +493,12 @@
       <c r="F3">
         <v>3.956</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">(D3/$D$5)*100</f>
+        <v>0.15193035639632879</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17</v>
       </c>
@@ -504,11 +519,19 @@
       <c r="F4">
         <v>8.0453702000000007</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.13401284901089699</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5">
         <f>SUM(C2:C4)</f>
         <v>100</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>1.8998178300000002E-2</v>
       </c>
     </row>
   </sheetData>
